--- a/Data/Data_Collection_missing.xlsx
+++ b/Data/Data_Collection_missing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\FoundationOfDataScience\Project_FODS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E9A809-6DC1-4A08-A760-0040E76F6DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72860DA3-0606-41BA-825A-ED4D67680B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,10 +907,10 @@
   <dimension ref="A1:AB221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B167" sqref="B167"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2096,10 +2096,7 @@
         <f t="shared" si="8"/>
         <v>689935</v>
       </c>
-      <c r="AA13" s="1">
-        <f>CORREL(X3:X72,T3:T72)</f>
-        <v>0.71557364057053841</v>
-      </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
